--- a/data/trans_dic/P22$mutuaSPriv-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.06826364660720881</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07127479510685025</v>
+        <v>0.07127479510685024</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02751715208714182</v>
+        <v>0.02854380707473463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02805486602654289</v>
+        <v>0.02998800407108123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04794734539633448</v>
+        <v>0.04720240791066758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04591591510479499</v>
+        <v>0.04635833513074082</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03517700487075182</v>
+        <v>0.03426116087817738</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03519564367517017</v>
+        <v>0.03295291339637656</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04349676300775307</v>
+        <v>0.0412144515969601</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05911747980674423</v>
+        <v>0.06082316676268856</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03465426408560332</v>
+        <v>0.03472894680847325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03524357495559364</v>
+        <v>0.03440339183698297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05167595354043932</v>
+        <v>0.05156895102225899</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05795486571725999</v>
+        <v>0.0578497935124462</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06426102332842105</v>
+        <v>0.06813168385896219</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07502514645588826</v>
+        <v>0.07946220566357683</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09955067977904551</v>
+        <v>0.09903385306564165</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08639057917844548</v>
+        <v>0.0876682879720745</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08442223764672405</v>
+        <v>0.0851873522880745</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08954163862290047</v>
+        <v>0.08831018543819004</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09524298887837586</v>
+        <v>0.09491186755085325</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1014003388154636</v>
+        <v>0.1035152578133157</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06520684554984474</v>
+        <v>0.06572244402917372</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07101858889682086</v>
+        <v>0.07083248874955522</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08878647361604625</v>
+        <v>0.09005697483239218</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08905000103081172</v>
+        <v>0.0864299683507927</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.07248678307195723</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07036186613950511</v>
+        <v>0.07036186613950508</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02426943468474318</v>
@@ -821,7 +821,7 @@
         <v>0.03428948601052181</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04374039785130872</v>
+        <v>0.04374039785130873</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03664131224152409</v>
@@ -833,7 +833,7 @@
         <v>0.0534899429952348</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05793330993423207</v>
+        <v>0.05793330993423206</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02807434149351767</v>
+        <v>0.02693979721373363</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04775063097047611</v>
+        <v>0.04701104765810153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04738402357925306</v>
+        <v>0.04645570611270737</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04943279243961138</v>
+        <v>0.04978950228227616</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0107189983740104</v>
+        <v>0.01132663518280039</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0423210466926868</v>
+        <v>0.0427650098417836</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01894640763160075</v>
+        <v>0.01825214876940599</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0297327866160546</v>
+        <v>0.02894109046769711</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02462871038969994</v>
+        <v>0.02379780211929054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05266366761315538</v>
+        <v>0.05009138389863445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03768598879787532</v>
+        <v>0.03775599971701333</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04408103350831687</v>
+        <v>0.04392264834568467</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08234057002014901</v>
+        <v>0.08014198044730793</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1085814637751569</v>
+        <v>0.1066243811015701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1032449620175777</v>
+        <v>0.1033481967995876</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0989978914411454</v>
+        <v>0.09864634268320253</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04320183659474638</v>
+        <v>0.04244653906327311</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1074702032582028</v>
+        <v>0.1059638017633562</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05841765080765848</v>
+        <v>0.05599410468264182</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06369335088641961</v>
+        <v>0.06542905972672725</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05656221772860633</v>
+        <v>0.05373119073570039</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09730025872923542</v>
+        <v>0.09528115252229163</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07235261843560804</v>
+        <v>0.07224401448226424</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07335628599559318</v>
+        <v>0.07350406132354557</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.005930957126778836</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.006492349333659809</v>
+        <v>0.006492349333659807</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001596275937912625</v>
+        <v>0.001582342938457883</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004398931879719066</v>
+        <v>0.0044163032034436</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001579304389693888</v>
+        <v>0.001527432909998709</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005139788183619834</v>
+        <v>0.005154320041245579</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01067849947197607</v>
+        <v>0.01099062758914236</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0</v>
+        <v>0.002065663597173664</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002957547257643077</v>
+        <v>0.003170968164005522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007380345534851751</v>
+        <v>0.007646645478404606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001565577473267462</v>
+        <v>0.001836725962235969</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002637669429553807</v>
+        <v>0.0022492633527369</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01530435962334201</v>
+        <v>0.01497278204694369</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02330164860548698</v>
+        <v>0.02553516390785474</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01163242718474591</v>
+        <v>0.01173510315585787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01569540878535944</v>
+        <v>0.01502652785942518</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05569809524697131</v>
+        <v>0.05621415871108875</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04749701139035781</v>
+        <v>0.04627050980843969</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04870291565698566</v>
+        <v>0.04003783872087657</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02477284709115519</v>
+        <v>0.03190623035151038</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01834531307377386</v>
+        <v>0.01900590881831966</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02354193850699447</v>
+        <v>0.02494376033394241</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0151144293204886</v>
+        <v>0.014629105435915</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01340266020158538</v>
+        <v>0.01360916061485148</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.004877304073470622</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01256795236794283</v>
+        <v>0.01256795236794284</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007489457114990929</v>
+        <v>0.007103841853021569</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001668997757679304</v>
+        <v>0.002357497404046548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0009853253969582731</v>
+        <v>0.000985037314155441</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004362720234698027</v>
+        <v>0.004013524435198179</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005549823611325662</v>
+        <v>0.005840965248638406</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.003858700190583625</v>
+        <v>0.003922745780922071</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001467783873972634</v>
+        <v>0.001844586402682739</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009877808357739423</v>
+        <v>0.00967115715300519</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008025923631818775</v>
+        <v>0.008487088178884626</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.00361609132508816</v>
+        <v>0.004020181162248448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.002222604462912356</v>
+        <v>0.002258746569972854</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007989273601382865</v>
+        <v>0.008211479853244903</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02106547951394865</v>
+        <v>0.01999774966041814</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01058838855708672</v>
+        <v>0.01034278078342421</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009803932057179991</v>
+        <v>0.01042498037876793</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02268927220437843</v>
+        <v>0.01999421955638392</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02428318731355575</v>
+        <v>0.02517022085399562</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02207395768249878</v>
+        <v>0.02356967853568276</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0147744386090713</v>
+        <v>0.01422470898023726</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02848859551172571</v>
+        <v>0.02745245718596364</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01851194703868967</v>
+        <v>0.01939971972416361</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01239695811425785</v>
+        <v>0.01354880961413707</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.009282742736153803</v>
+        <v>0.009468265844094338</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02020014911637337</v>
+        <v>0.02045026225902421</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.005132809962231347</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.004896971978800916</v>
+        <v>0.004896971978800915</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01725411061683393</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005158370977626914</v>
+        <v>0.00518195691691071</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001943138682257506</v>
+        <v>0.001877832446799352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001637599698170815</v>
+        <v>0.00162650760026877</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.001384275045111086</v>
+        <v>0.001393283996231798</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.00862604625818339</v>
+        <v>0.008479400585451883</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.001276391053285298</v>
+        <v>0.001282919132094615</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.002223609320376127</v>
+        <v>0.002216795237011367</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.009010164672776837</v>
+        <v>0.009268897043500481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.002377675972897448</v>
+        <v>0.002295413194698344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.001484509592868627</v>
+        <v>0.001480158999423791</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.002462481729631311</v>
+        <v>0.002667576034385844</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03727696418996166</v>
+        <v>0.03594065093858744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01845156761521407</v>
+        <v>0.01771116322305491</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01450767493545556</v>
+        <v>0.0140591141479588</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01486600488214722</v>
+        <v>0.01406263464888946</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03082668055272096</v>
+        <v>0.0319333985634395</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01081570335195194</v>
+        <v>0.01138494014225116</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01184366540826179</v>
+        <v>0.01345178804756307</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01093001670580067</v>
+        <v>0.01068820931596084</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02725578151467389</v>
+        <v>0.02644630313129047</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0114728116093773</v>
+        <v>0.01075407169919114</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.009050280132422518</v>
+        <v>0.009131990439468898</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.009166081540999418</v>
+        <v>0.00977902562142963</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.01275319543953125</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02560392280588265</v>
+        <v>0.02560392280588266</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009295918461353416</v>
+        <v>0.009181965125573515</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01096078670000111</v>
+        <v>0.01052930547708229</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003666982704409847</v>
+        <v>0.003634722661619719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01756192250734783</v>
+        <v>0.02341682727517712</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01111624515197402</v>
+        <v>0.01140323986298191</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003450539364924555</v>
+        <v>0.003452440658449425</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.006706883876272382</v>
+        <v>0.006949086152405309</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.00913618532690388</v>
+        <v>0.008856410178764351</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.012407982994331</v>
+        <v>0.01222894301871023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.006307263489353158</v>
+        <v>0.006438881254902467</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.007691915493250962</v>
+        <v>0.007092841482215923</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01492929768394933</v>
+        <v>0.01484068712721662</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04527297718584184</v>
+        <v>0.04224987193114917</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05465363804071993</v>
+        <v>0.06003397982463768</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03001788889744859</v>
+        <v>0.02974930780368682</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1324049830106762</v>
+        <v>0.1362733198243661</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02549439797588066</v>
+        <v>0.0261744031767463</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01595936243539392</v>
+        <v>0.01697376791628733</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02186293515118748</v>
+        <v>0.02306401367595089</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02317504215868249</v>
+        <v>0.02365830269524688</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02628447347654835</v>
+        <v>0.02614625637174069</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01999879031829791</v>
+        <v>0.01911635974647875</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02171223849260348</v>
+        <v>0.02103011028952883</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04279237166187533</v>
+        <v>0.04353490393675378</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.01879371935341523</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.0269526593897491</v>
+        <v>0.02695265938974911</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0166806755847104</v>
+        <v>0.01632735389625512</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01695277936130027</v>
+        <v>0.01684611094534065</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0163022700729805</v>
+        <v>0.0159140491127396</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02313067798636057</v>
+        <v>0.02364425521428526</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01654812564974033</v>
+        <v>0.01646073249391167</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01476154434210521</v>
+        <v>0.0141792592800671</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01245757500186332</v>
+        <v>0.01276877509921792</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02086286077654729</v>
+        <v>0.02063295712751369</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01795196087133668</v>
+        <v>0.01759668513797875</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01686196335307167</v>
+        <v>0.01671080810461793</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01582460953195155</v>
+        <v>0.01572999368963903</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02303666358906416</v>
+        <v>0.02325673324895313</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02720591624285808</v>
+        <v>0.02664849326890025</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02902361490709669</v>
+        <v>0.02820394752729172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02634319619300607</v>
+        <v>0.02609790505020239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03665603236332204</v>
+        <v>0.03649240175030632</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02675321798306727</v>
+        <v>0.02595835154947912</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02507263008030261</v>
+        <v>0.02451895873224877</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02173027269637234</v>
+        <v>0.02159210217322368</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02982538138968214</v>
+        <v>0.02929728111868384</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02487699135209129</v>
+        <v>0.02467598588697361</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02435229219494052</v>
+        <v>0.02464236133188397</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02263762583908509</v>
+        <v>0.02267542872427383</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03101248909188875</v>
+        <v>0.03128717418017012</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12996</v>
+        <v>13480</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12266</v>
+        <v>13111</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20574</v>
+        <v>20254</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25282</v>
+        <v>25526</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10788</v>
+        <v>10507</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11067</v>
+        <v>10362</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15096</v>
+        <v>14304</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>28874</v>
+        <v>29707</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>26994</v>
+        <v>27052</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26491</v>
+        <v>25860</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>40108</v>
+        <v>40025</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>60217</v>
+        <v>60108</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30349</v>
+        <v>32177</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32802</v>
+        <v>34742</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42716</v>
+        <v>42495</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>47568</v>
+        <v>48272</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25891</v>
+        <v>26125</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28157</v>
+        <v>27769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>33055</v>
+        <v>32940</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>49525</v>
+        <v>50558</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>50793</v>
+        <v>51195</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>53382</v>
+        <v>53242</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>68911</v>
+        <v>69897</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>92526</v>
+        <v>89803</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10301</v>
+        <v>9885</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19998</v>
+        <v>19688</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17829</v>
+        <v>17480</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23887</v>
+        <v>24059</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3986</v>
+        <v>4212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14305</v>
+        <v>14455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7053</v>
+        <v>6795</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12581</v>
+        <v>12246</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>18196</v>
+        <v>17582</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>39856</v>
+        <v>37910</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>28209</v>
+        <v>28262</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>39953</v>
+        <v>39810</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30214</v>
+        <v>29407</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45474</v>
+        <v>44654</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38847</v>
+        <v>38886</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47837</v>
+        <v>47667</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16065</v>
+        <v>15784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36326</v>
+        <v>35817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21747</v>
+        <v>20845</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26951</v>
+        <v>27686</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41788</v>
+        <v>39697</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>73638</v>
+        <v>72110</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>54159</v>
+        <v>54077</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>66487</v>
+        <v>66621</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2769</v>
+        <v>2780</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2778</v>
+        <v>2859</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2098</v>
+        <v>2249</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6565</v>
+        <v>6802</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1077</v>
+        <v>1264</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1739</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8288</v>
+        <v>8109</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14666</v>
+        <v>16072</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6071</v>
+        <v>6125</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7402</v>
+        <v>7087</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9345</v>
+        <v>9432</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12355</v>
+        <v>12036</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8091</v>
+        <v>6651</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4645</v>
+        <v>5982</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13013</v>
+        <v>13482</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20942</v>
+        <v>22189</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10399</v>
+        <v>10065</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>8834</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9251</v>
+        <v>8774</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1933</v>
+        <v>2730</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>1132</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4938</v>
+        <v>4543</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3964</v>
+        <v>4172</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2958</v>
+        <v>3007</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1207</v>
+        <v>1517</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8507</v>
+        <v>8329</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15646</v>
+        <v>16545</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6960</v>
+        <v>7738</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4381</v>
+        <v>4452</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15923</v>
+        <v>16366</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26020</v>
+        <v>24701</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12262</v>
+        <v>11977</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11262</v>
+        <v>11975</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25681</v>
+        <v>22630</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17345</v>
+        <v>17979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16923</v>
+        <v>18070</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12149</v>
+        <v>11697</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24535</v>
+        <v>23642</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36088</v>
+        <v>37819</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>23860</v>
+        <v>26077</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>18297</v>
+        <v>18662</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>40260</v>
+        <v>40758</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1808</v>
+        <v>1817</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>992</v>
+        <v>959</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4906</v>
+        <v>4823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8283</v>
+        <v>8521</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3025</v>
+        <v>2920</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3443</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13068</v>
+        <v>12599</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9421</v>
+        <v>9043</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8988</v>
+        <v>8710</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8443</v>
+        <v>7987</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17533</v>
+        <v>18162</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>8236</v>
+        <v>8670</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8732</v>
+        <v>9918</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>9073</v>
+        <v>8873</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>25056</v>
+        <v>24312</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14595</v>
+        <v>13680</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12279</v>
+        <v>12390</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>12815</v>
+        <v>13672</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2763</v>
+        <v>2730</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2925</v>
+        <v>2810</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4166</v>
+        <v>5555</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>13859</v>
+        <v>14217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3828</v>
+        <v>3830</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7248</v>
+        <v>7510</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7714</v>
+        <v>7477</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>19158</v>
+        <v>18882</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>8680</v>
+        <v>8861</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10522</v>
+        <v>9702</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>16146</v>
+        <v>16050</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13458</v>
+        <v>12560</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14586</v>
+        <v>16022</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8619</v>
+        <v>8542</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>31410</v>
+        <v>32328</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>31785</v>
+        <v>32632</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17705</v>
+        <v>18830</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>23628</v>
+        <v>24927</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19566</v>
+        <v>19974</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>40583</v>
+        <v>40370</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>27523</v>
+        <v>26309</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>29700</v>
+        <v>28767</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>46280</v>
+        <v>47083</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>54442</v>
+        <v>53289</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>57994</v>
+        <v>57629</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55145</v>
+        <v>53832</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>79627</v>
+        <v>81395</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>55868</v>
+        <v>55573</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>52405</v>
+        <v>50338</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>43923</v>
+        <v>45020</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>75830</v>
+        <v>74994</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>119199</v>
+        <v>116840</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>117546</v>
+        <v>116492</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>109323</v>
+        <v>108670</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>163034</v>
+        <v>164591</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>88794</v>
+        <v>86975</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>99288</v>
+        <v>96484</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>89110</v>
+        <v>88280</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>126188</v>
+        <v>125624</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>90321</v>
+        <v>87638</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>89011</v>
+        <v>87045</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>76616</v>
+        <v>76129</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>108405</v>
+        <v>106486</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>165180</v>
+        <v>163846</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>169761</v>
+        <v>171783</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>156391</v>
+        <v>156652</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>219480</v>
+        <v>221424</v>
       </c>
     </row>
     <row r="32">
